--- a/Documents/Testing Documentation.xlsx
+++ b/Documents/Testing Documentation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="172">
   <si>
     <t>Where?</t>
   </si>
@@ -244,7 +244,7 @@
     <t>The new item is added to the cart</t>
   </si>
   <si>
-    <t>In Progess</t>
+    <t>Price of misc item is added onto the total cart balance</t>
   </si>
   <si>
     <t>Cart Button is Pressed</t>
@@ -361,9 +361,6 @@
     <t>The Balance is updated</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Some Case that need to be addressed. Like the floor vs ceiling</t>
   </si>
   <si>
@@ -482,6 +479,54 @@
   </si>
   <si>
     <t>Nothing Crashes or Happens</t>
+  </si>
+  <si>
+    <t>User inputs amount of meals/flexi</t>
+  </si>
+  <si>
+    <t>Check to see if home button saves the newly entered balance</t>
+  </si>
+  <si>
+    <t>Values are saved</t>
+  </si>
+  <si>
+    <t>Values should have been saved upon pressing home button</t>
+  </si>
+  <si>
+    <t>Initially values did not save upon home button pressed, but now they do</t>
+  </si>
+  <si>
+    <t>Checkout calculation is not functioning as intended</t>
+  </si>
+  <si>
+    <t>User tries to proceed to checkout and properly deduct values from their balance</t>
+  </si>
+  <si>
+    <t>Proper number of meals should be deducted.</t>
+  </si>
+  <si>
+    <t>Return to home screen after pressing checkout button, and balance is updated</t>
+  </si>
+  <si>
+    <t>Incorrect number of meals is being deducted because of the algorithm being used to calculate the number of meals.</t>
+  </si>
+  <si>
+    <t>Sufficient Balance</t>
+  </si>
+  <si>
+    <t>User chooses their favorite and it is passed into the cart activity for checkout</t>
+  </si>
+  <si>
+    <t>App needs to check whether the budget is greater than the remaining total balance</t>
+  </si>
+  <si>
+    <t>App should check and only allow favorite to be placed into cart if there is a sufficient total balance</t>
+  </si>
+  <si>
+    <t>Favorite is placed into the cart if sufficient balance is present</t>
+  </si>
+  <si>
+    <t>Favorite is passed into the cart activity after checking budget/balance</t>
   </si>
 </sst>
 </file>
@@ -504,7 +549,7 @@
     </font>
     <font/>
     <font>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -924,9 +969,11 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="7"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15">
@@ -1084,29 +1131,29 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1115,209 +1162,253 @@
         <v>95</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="I24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="D29" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="I29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="C30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="I30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="I31" s="5"/>
     </row>
     <row r="32">
